--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.249141347541881</v>
+        <v>0.483258</v>
       </c>
       <c r="H2">
-        <v>0.249141347541881</v>
+        <v>1.449774</v>
       </c>
       <c r="I2">
-        <v>0.05883911835653299</v>
+        <v>0.104155612626562</v>
       </c>
       <c r="J2">
-        <v>0.05883911835653299</v>
+        <v>0.1095883597507648</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.29735463829157</v>
+        <v>5.842814000000001</v>
       </c>
       <c r="N2">
-        <v>3.29735463829157</v>
+        <v>17.528442</v>
       </c>
       <c r="O2">
-        <v>0.2801041624372606</v>
+        <v>0.388476337726801</v>
       </c>
       <c r="P2">
-        <v>0.2801041624372606</v>
+        <v>0.4529856526976699</v>
       </c>
       <c r="Q2">
-        <v>0.8215073779074334</v>
+        <v>2.823586608012</v>
       </c>
       <c r="R2">
-        <v>0.8215073779074334</v>
+        <v>25.412279472108</v>
       </c>
       <c r="S2">
-        <v>0.01648108196580352</v>
+        <v>0.04046199094685818</v>
       </c>
       <c r="T2">
-        <v>0.01648108196580352</v>
+        <v>0.04964195466976724</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.249141347541881</v>
+        <v>0.483258</v>
       </c>
       <c r="H3">
-        <v>0.249141347541881</v>
+        <v>1.449774</v>
       </c>
       <c r="I3">
-        <v>0.05883911835653299</v>
+        <v>0.104155612626562</v>
       </c>
       <c r="J3">
-        <v>0.05883911835653299</v>
+        <v>0.1095883597507648</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.86808040548519</v>
+        <v>1.970524</v>
       </c>
       <c r="N3">
-        <v>1.86808040548519</v>
+        <v>5.911572</v>
       </c>
       <c r="O3">
-        <v>0.1586899665772675</v>
+        <v>0.1310159705448037</v>
       </c>
       <c r="P3">
-        <v>0.1586899665772675</v>
+        <v>0.1527721232091973</v>
       </c>
       <c r="Q3">
-        <v>0.4654160695391637</v>
+        <v>0.9522714871920001</v>
       </c>
       <c r="R3">
-        <v>0.4654160695391637</v>
+        <v>8.570443384728</v>
       </c>
       <c r="S3">
-        <v>0.009337177725434107</v>
+        <v>0.01364604867595764</v>
       </c>
       <c r="T3">
-        <v>0.009337177725434107</v>
+        <v>0.01674204639813768</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.249141347541881</v>
+        <v>0.483258</v>
       </c>
       <c r="H4">
-        <v>0.249141347541881</v>
+        <v>1.449774</v>
       </c>
       <c r="I4">
-        <v>0.05883911835653299</v>
+        <v>0.104155612626562</v>
       </c>
       <c r="J4">
-        <v>0.05883911835653299</v>
+        <v>0.1095883597507648</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.428664735509589</v>
+        <v>0.5327236666666667</v>
       </c>
       <c r="N4">
-        <v>0.428664735509589</v>
+        <v>1.598171</v>
       </c>
       <c r="O4">
-        <v>0.03641427443440373</v>
+        <v>0.03541966919485367</v>
       </c>
       <c r="P4">
-        <v>0.03641427443440373</v>
+        <v>0.04130136229777226</v>
       </c>
       <c r="Q4">
-        <v>0.106798109848543</v>
+        <v>0.2574429737060001</v>
       </c>
       <c r="R4">
-        <v>0.106798109848543</v>
+        <v>2.316986763354</v>
       </c>
       <c r="S4">
-        <v>0.002142583803313154</v>
+        <v>0.003689157344020152</v>
       </c>
       <c r="T4">
-        <v>0.002142583803313154</v>
+        <v>0.00452614854968494</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.249141347541881</v>
+        <v>0.483258</v>
       </c>
       <c r="H5">
-        <v>0.249141347541881</v>
+        <v>1.449774</v>
       </c>
       <c r="I5">
-        <v>0.05883911835653299</v>
+        <v>0.104155612626562</v>
       </c>
       <c r="J5">
-        <v>0.05883911835653299</v>
+        <v>0.1095883597507648</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>6.17778754148894</v>
+        <v>0.2686276666666667</v>
       </c>
       <c r="N5">
-        <v>6.17778754148894</v>
+        <v>0.805883</v>
       </c>
       <c r="O5">
-        <v>0.5247915965510682</v>
+        <v>0.01786048506058254</v>
       </c>
       <c r="P5">
-        <v>0.5247915965510682</v>
+        <v>0.02082634821468766</v>
       </c>
       <c r="Q5">
-        <v>1.539142312913999</v>
+        <v>0.129816468938</v>
       </c>
       <c r="R5">
-        <v>1.539142312913999</v>
+        <v>1.168348220442</v>
       </c>
       <c r="S5">
-        <v>0.03087827486198221</v>
+        <v>0.001860269763292533</v>
       </c>
       <c r="T5">
-        <v>0.03087827486198221</v>
+        <v>0.00228232534044589</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.34010785162245</v>
+        <v>0.483258</v>
       </c>
       <c r="H6">
-        <v>3.34010785162245</v>
+        <v>1.449774</v>
       </c>
       <c r="I6">
-        <v>0.7888253119934725</v>
+        <v>0.104155612626562</v>
       </c>
       <c r="J6">
-        <v>0.7888253119934725</v>
+        <v>0.1095883597507648</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.29735463829157</v>
+        <v>6.425644999999999</v>
       </c>
       <c r="N6">
-        <v>3.29735463829157</v>
+        <v>12.85129</v>
       </c>
       <c r="O6">
-        <v>0.2801041624372606</v>
+        <v>0.4272275374729591</v>
       </c>
       <c r="P6">
-        <v>0.2801041624372606</v>
+        <v>0.3321145135806729</v>
       </c>
       <c r="Q6">
-        <v>11.01352011694138</v>
+        <v>3.10524435141</v>
       </c>
       <c r="R6">
-        <v>11.01352011694138</v>
+        <v>18.63146610846</v>
       </c>
       <c r="S6">
-        <v>0.2209532533252424</v>
+        <v>0.04449814589643354</v>
       </c>
       <c r="T6">
-        <v>0.2209532533252424</v>
+        <v>0.03639588479272904</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.34010785162245</v>
+        <v>3.466092333333334</v>
       </c>
       <c r="H7">
-        <v>3.34010785162245</v>
+        <v>10.398277</v>
       </c>
       <c r="I7">
-        <v>0.7888253119934725</v>
+        <v>0.7470398222037985</v>
       </c>
       <c r="J7">
-        <v>0.7888253119934725</v>
+        <v>0.7860053502574217</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.86808040548519</v>
+        <v>5.842814000000001</v>
       </c>
       <c r="N7">
-        <v>1.86808040548519</v>
+        <v>17.528442</v>
       </c>
       <c r="O7">
-        <v>0.1586899665772675</v>
+        <v>0.388476337726801</v>
       </c>
       <c r="P7">
-        <v>0.1586899665772675</v>
+        <v>0.4529856526976699</v>
       </c>
       <c r="Q7">
-        <v>6.239590029823134</v>
+        <v>20.25173281049267</v>
       </c>
       <c r="R7">
-        <v>6.239590029823134</v>
+        <v>182.265595294434</v>
       </c>
       <c r="S7">
-        <v>0.1251786623955468</v>
+        <v>0.2902072942658122</v>
       </c>
       <c r="T7">
-        <v>0.1251786623955468</v>
+        <v>0.3560491466102188</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.34010785162245</v>
+        <v>3.466092333333334</v>
       </c>
       <c r="H8">
-        <v>3.34010785162245</v>
+        <v>10.398277</v>
       </c>
       <c r="I8">
-        <v>0.7888253119934725</v>
+        <v>0.7470398222037985</v>
       </c>
       <c r="J8">
-        <v>0.7888253119934725</v>
+        <v>0.7860053502574217</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.428664735509589</v>
+        <v>1.970524</v>
       </c>
       <c r="N8">
-        <v>0.428664735509589</v>
+        <v>5.911572</v>
       </c>
       <c r="O8">
-        <v>0.03641427443440373</v>
+        <v>0.1310159705448037</v>
       </c>
       <c r="P8">
-        <v>0.03641427443440373</v>
+        <v>0.1527721232091973</v>
       </c>
       <c r="Q8">
-        <v>1.431786448789239</v>
+        <v>6.830018129049334</v>
       </c>
       <c r="R8">
-        <v>1.431786448789239</v>
+        <v>61.470163161444</v>
       </c>
       <c r="S8">
-        <v>0.02872450139173445</v>
+        <v>0.09787414734164826</v>
       </c>
       <c r="T8">
-        <v>0.02872450139173445</v>
+        <v>0.1200797062126151</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.34010785162245</v>
+        <v>3.466092333333334</v>
       </c>
       <c r="H9">
-        <v>3.34010785162245</v>
+        <v>10.398277</v>
       </c>
       <c r="I9">
-        <v>0.7888253119934725</v>
+        <v>0.7470398222037985</v>
       </c>
       <c r="J9">
-        <v>0.7888253119934725</v>
+        <v>0.7860053502574217</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.17778754148894</v>
+        <v>0.5327236666666667</v>
       </c>
       <c r="N9">
-        <v>6.17778754148894</v>
+        <v>1.598171</v>
       </c>
       <c r="O9">
-        <v>0.5247915965510682</v>
+        <v>0.03541966919485367</v>
       </c>
       <c r="P9">
-        <v>0.5247915965510682</v>
+        <v>0.04130136229777226</v>
       </c>
       <c r="Q9">
-        <v>20.63447667298256</v>
+        <v>1.846469416818556</v>
       </c>
       <c r="R9">
-        <v>20.63447667298256</v>
+        <v>16.618224751367</v>
       </c>
       <c r="S9">
-        <v>0.413968894880949</v>
+        <v>0.02645990337784084</v>
       </c>
       <c r="T9">
-        <v>0.413968894880949</v>
+        <v>0.03246309173896916</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.645031573572953</v>
+        <v>3.466092333333334</v>
       </c>
       <c r="H10">
-        <v>0.645031573572953</v>
+        <v>10.398277</v>
       </c>
       <c r="I10">
-        <v>0.1523355696499945</v>
+        <v>0.7470398222037985</v>
       </c>
       <c r="J10">
-        <v>0.1523355696499945</v>
+        <v>0.7860053502574217</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.29735463829157</v>
+        <v>0.2686276666666667</v>
       </c>
       <c r="N10">
-        <v>3.29735463829157</v>
+        <v>0.805883</v>
       </c>
       <c r="O10">
-        <v>0.2801041624372606</v>
+        <v>0.01786048506058254</v>
       </c>
       <c r="P10">
-        <v>0.2801041624372606</v>
+        <v>0.02082634821468766</v>
       </c>
       <c r="Q10">
-        <v>2.126897850965287</v>
+        <v>0.9310882959545556</v>
       </c>
       <c r="R10">
-        <v>2.126897850965287</v>
+        <v>8.379794663591001</v>
       </c>
       <c r="S10">
-        <v>0.04266982714621469</v>
+        <v>0.01334249358413118</v>
       </c>
       <c r="T10">
-        <v>0.04266982714621469</v>
+        <v>0.01636962112306861</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.645031573572953</v>
+        <v>3.466092333333334</v>
       </c>
       <c r="H11">
-        <v>0.645031573572953</v>
+        <v>10.398277</v>
       </c>
       <c r="I11">
-        <v>0.1523355696499945</v>
+        <v>0.7470398222037985</v>
       </c>
       <c r="J11">
-        <v>0.1523355696499945</v>
+        <v>0.7860053502574217</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.86808040548519</v>
+        <v>6.425644999999999</v>
       </c>
       <c r="N11">
-        <v>1.86808040548519</v>
+        <v>12.85129</v>
       </c>
       <c r="O11">
-        <v>0.1586899665772675</v>
+        <v>0.4272275374729591</v>
       </c>
       <c r="P11">
-        <v>0.1586899665772675</v>
+        <v>0.3321145135806729</v>
       </c>
       <c r="Q11">
-        <v>1.204970843510912</v>
+        <v>22.27187887122167</v>
       </c>
       <c r="R11">
-        <v>1.204970843510912</v>
+        <v>133.63127322733</v>
       </c>
       <c r="S11">
-        <v>0.02417412645628664</v>
+        <v>0.319155983634366</v>
       </c>
       <c r="T11">
-        <v>0.02417412645628664</v>
+        <v>0.26104378457255</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.645031573572953</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H12">
-        <v>0.645031573572953</v>
+        <v>0.001144</v>
       </c>
       <c r="I12">
-        <v>0.1523355696499945</v>
+        <v>8.218799678073065E-05</v>
       </c>
       <c r="J12">
-        <v>0.1523355696499945</v>
+        <v>8.64749150935766E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.428664735509589</v>
+        <v>5.842814000000001</v>
       </c>
       <c r="N12">
-        <v>0.428664735509589</v>
+        <v>17.528442</v>
       </c>
       <c r="O12">
-        <v>0.03641427443440373</v>
+        <v>0.388476337726801</v>
       </c>
       <c r="P12">
-        <v>0.03641427443440373</v>
+        <v>0.4529856526976699</v>
       </c>
       <c r="Q12">
-        <v>0.2765022888809839</v>
+        <v>0.002228059738666667</v>
       </c>
       <c r="R12">
-        <v>0.2765022888809839</v>
+        <v>0.020052537648</v>
       </c>
       <c r="S12">
-        <v>0.005547189239356124</v>
+        <v>3.192809199448036E-05</v>
       </c>
       <c r="T12">
-        <v>0.005547189239356124</v>
+        <v>3.917189585563938E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.0003813333333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.001144</v>
+      </c>
+      <c r="I13">
+        <v>8.218799678073065E-05</v>
+      </c>
+      <c r="J13">
+        <v>8.64749150935766E-05</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.970524</v>
+      </c>
+      <c r="N13">
+        <v>5.911572</v>
+      </c>
+      <c r="O13">
+        <v>0.1310159705448037</v>
+      </c>
+      <c r="P13">
+        <v>0.1527721232091973</v>
+      </c>
+      <c r="Q13">
+        <v>0.0007514264853333333</v>
+      </c>
+      <c r="R13">
+        <v>0.006762838368</v>
+      </c>
+      <c r="S13">
+        <v>1.076794016536063E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.321095638318076E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.0003813333333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.001144</v>
+      </c>
+      <c r="I14">
+        <v>8.218799678073065E-05</v>
+      </c>
+      <c r="J14">
+        <v>8.64749150935766E-05</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.5327236666666667</v>
+      </c>
+      <c r="N14">
+        <v>1.598171</v>
+      </c>
+      <c r="O14">
+        <v>0.03541966919485367</v>
+      </c>
+      <c r="P14">
+        <v>0.04130136229777226</v>
+      </c>
+      <c r="Q14">
+        <v>0.0002031452915555556</v>
+      </c>
+      <c r="R14">
+        <v>0.001828307624</v>
+      </c>
+      <c r="S14">
+        <v>2.911071657761178E-06</v>
+      </c>
+      <c r="T14">
+        <v>3.571531797948902E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.0003813333333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.001144</v>
+      </c>
+      <c r="I15">
+        <v>8.218799678073065E-05</v>
+      </c>
+      <c r="J15">
+        <v>8.64749150935766E-05</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.2686276666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.805883</v>
+      </c>
+      <c r="O15">
+        <v>0.01786048506058254</v>
+      </c>
+      <c r="P15">
+        <v>0.02082634821468766</v>
+      </c>
+      <c r="Q15">
+        <v>0.0001024366835555555</v>
+      </c>
+      <c r="R15">
+        <v>0.0009219301520000001</v>
+      </c>
+      <c r="S15">
+        <v>1.467917488661445E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.800956693574376E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.0003813333333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.001144</v>
+      </c>
+      <c r="I16">
+        <v>8.218799678073065E-05</v>
+      </c>
+      <c r="J16">
+        <v>8.64749150935766E-05</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.425644999999999</v>
+      </c>
+      <c r="N16">
+        <v>12.85129</v>
+      </c>
+      <c r="O16">
+        <v>0.4272275374729591</v>
+      </c>
+      <c r="P16">
+        <v>0.3321145135806729</v>
+      </c>
+      <c r="Q16">
+        <v>0.002450312626666667</v>
+      </c>
+      <c r="R16">
+        <v>0.01470187576</v>
+      </c>
+      <c r="S16">
+        <v>3.511297547446704E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.871957436323318E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6900375000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.380075</v>
+      </c>
+      <c r="I17">
+        <v>0.1487223771728586</v>
+      </c>
+      <c r="J17">
+        <v>0.10431981507672</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.842814000000001</v>
+      </c>
+      <c r="N17">
+        <v>17.528442</v>
+      </c>
+      <c r="O17">
+        <v>0.388476337726801</v>
+      </c>
+      <c r="P17">
+        <v>0.4529856526976699</v>
+      </c>
+      <c r="Q17">
+        <v>4.031760765525001</v>
+      </c>
+      <c r="R17">
+        <v>24.19056459315</v>
+      </c>
+      <c r="S17">
+        <v>0.05777512442213611</v>
+      </c>
+      <c r="T17">
+        <v>0.04725537952182825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.6900375000000001</v>
+      </c>
+      <c r="H18">
+        <v>1.380075</v>
+      </c>
+      <c r="I18">
+        <v>0.1487223771728586</v>
+      </c>
+      <c r="J18">
+        <v>0.10431981507672</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.970524</v>
+      </c>
+      <c r="N18">
+        <v>5.911572</v>
+      </c>
+      <c r="O18">
+        <v>0.1310159705448037</v>
+      </c>
+      <c r="P18">
+        <v>0.1527721232091973</v>
+      </c>
+      <c r="Q18">
+        <v>1.35973545465</v>
+      </c>
+      <c r="R18">
+        <v>8.1584127279</v>
+      </c>
+      <c r="S18">
+        <v>0.01948500658703244</v>
+      </c>
+      <c r="T18">
+        <v>0.01593715964206135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6900375000000001</v>
+      </c>
+      <c r="H19">
+        <v>1.380075</v>
+      </c>
+      <c r="I19">
+        <v>0.1487223771728586</v>
+      </c>
+      <c r="J19">
+        <v>0.10431981507672</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.5327236666666667</v>
+      </c>
+      <c r="N19">
+        <v>1.598171</v>
+      </c>
+      <c r="O19">
+        <v>0.03541966919485367</v>
+      </c>
+      <c r="P19">
+        <v>0.04130136229777226</v>
+      </c>
+      <c r="Q19">
+        <v>0.3675993071375001</v>
+      </c>
+      <c r="R19">
+        <v>2.205595842825</v>
+      </c>
+      <c r="S19">
+        <v>0.00526769740133491</v>
+      </c>
+      <c r="T19">
+        <v>0.004308550477320219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.645031573572953</v>
-      </c>
-      <c r="H13">
-        <v>0.645031573572953</v>
-      </c>
-      <c r="I13">
-        <v>0.1523355696499945</v>
-      </c>
-      <c r="J13">
-        <v>0.1523355696499945</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>6.17778754148894</v>
-      </c>
-      <c r="N13">
-        <v>6.17778754148894</v>
-      </c>
-      <c r="O13">
-        <v>0.5247915965510682</v>
-      </c>
-      <c r="P13">
-        <v>0.5247915965510682</v>
-      </c>
-      <c r="Q13">
-        <v>3.984868019085996</v>
-      </c>
-      <c r="R13">
-        <v>3.984868019085996</v>
-      </c>
-      <c r="S13">
-        <v>0.07994442680813707</v>
-      </c>
-      <c r="T13">
-        <v>0.07994442680813707</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.6900375000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.380075</v>
+      </c>
+      <c r="I20">
+        <v>0.1487223771728586</v>
+      </c>
+      <c r="J20">
+        <v>0.10431981507672</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.2686276666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.805883</v>
+      </c>
+      <c r="O20">
+        <v>0.01786048506058254</v>
+      </c>
+      <c r="P20">
+        <v>0.02082634821468766</v>
+      </c>
+      <c r="Q20">
+        <v>0.1853631635375</v>
+      </c>
+      <c r="R20">
+        <v>1.112178981225</v>
+      </c>
+      <c r="S20">
+        <v>0.002656253795670163</v>
+      </c>
+      <c r="T20">
+        <v>0.002172600794479596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.6900375000000001</v>
+      </c>
+      <c r="H21">
+        <v>1.380075</v>
+      </c>
+      <c r="I21">
+        <v>0.1487223771728586</v>
+      </c>
+      <c r="J21">
+        <v>0.10431981507672</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.425644999999999</v>
+      </c>
+      <c r="N21">
+        <v>12.85129</v>
+      </c>
+      <c r="O21">
+        <v>0.4272275374729591</v>
+      </c>
+      <c r="P21">
+        <v>0.3321145135806729</v>
+      </c>
+      <c r="Q21">
+        <v>4.4339360116875</v>
+      </c>
+      <c r="R21">
+        <v>17.73574404675</v>
+      </c>
+      <c r="S21">
+        <v>0.063538294966685</v>
+      </c>
+      <c r="T21">
+        <v>0.03464612464103062</v>
       </c>
     </row>
   </sheetData>
